--- a/課題管理表_テンプレート.xlsx
+++ b/課題管理表_テンプレート.xlsx
@@ -11,14 +11,14 @@
     <sheet name="優先度の定義" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">課題管理表!$A$3:$K$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">課題管理表!$A$3:$L$10</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -552,6 +552,25 @@
   </si>
   <si>
     <t>未着手</t>
+  </si>
+  <si>
+    <t>作業者</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hoge1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hoge1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hoge2</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -963,7 +982,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -977,19 +996,19 @@
     <col min="6" max="6" width="44.1796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.1796875" style="1" customWidth="1"/>
     <col min="8" max="8" width="25.453125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="1"/>
-    <col min="11" max="11" width="10.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1015,16 +1034,19 @@
         <v>6</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" ht="52" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="52" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1047,17 +1069,20 @@
         <v>45</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="6">
+      <c r="I4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="6">
         <v>44687</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" ht="52" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="52" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1080,17 +1105,20 @@
         <v>29</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="6">
+      <c r="I5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="6">
         <v>44687</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="6" spans="1:11" ht="65" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="65" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1115,17 +1143,20 @@
       <c r="H6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="6">
         <v>44687</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="7" spans="1:11" ht="52" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="52" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1148,17 +1179,20 @@
         <v>46</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="6">
+      <c r="I7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="6">
         <v>44687</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="8" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1181,17 +1215,20 @@
         <v>46</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="6">
+      <c r="I8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="6">
         <v>44687</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="9" spans="1:11" ht="26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1214,17 +1251,20 @@
         <v>46</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="6">
+      <c r="I9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="6">
         <v>44687</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="10" spans="1:11" ht="39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="39" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1247,24 +1287,27 @@
         <v>47</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="6">
+      <c r="I10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="6">
         <v>44687</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:K10"/>
+  <autoFilter ref="A3:L10"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G10">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J10">
       <formula1>"未着手,実装中,レビュー中,完了"</formula1>
     </dataValidation>
   </dataValidations>

--- a/課題管理表_テンプレート.xlsx
+++ b/課題管理表_テンプレート.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -570,6 +570,126 @@
   </si>
   <si>
     <t>hoge2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度の定義</t>
+    <rPh sb="0" eb="3">
+      <t>ユウセンド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度</t>
+    <rPh sb="0" eb="3">
+      <t>ユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低</t>
+    <rPh sb="0" eb="1">
+      <t>テイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定義</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト完遂のために，必ず実施が必要ないタスク</t>
+    <rPh sb="6" eb="8">
+      <t>カンスイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト完遂に必須ではないが，やった方がよいタスク</t>
+    <rPh sb="6" eb="8">
+      <t>カンスイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コードの保守に必要なタスク．俗人化の防止に必要なタスク</t>
+    <rPh sb="4" eb="6">
+      <t>ホシュ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゾクジン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ボウシ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特に必要はないが，やった方がよいタスク</t>
+    <rPh sb="0" eb="1">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリティカルパスのタスク</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -610,7 +730,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -626,6 +746,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,7 +785,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,6 +806,21 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -982,7 +1123,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1065,7 +1206,7 @@
       <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>45</v>
       </c>
       <c r="H4" s="5"/>
@@ -1101,7 +1242,7 @@
       <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H5" s="5"/>
@@ -1137,7 +1278,7 @@
       <c r="F6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="7" t="s">
         <v>46</v>
       </c>
       <c r="H6" s="5" t="s">
@@ -1175,7 +1316,7 @@
       <c r="F7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>46</v>
       </c>
       <c r="H7" s="5"/>
@@ -1211,7 +1352,7 @@
       <c r="F8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>46</v>
       </c>
       <c r="H8" s="5"/>
@@ -1247,7 +1388,7 @@
       <c r="F9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>46</v>
       </c>
       <c r="H9" s="5"/>
@@ -1283,7 +1424,7 @@
       <c r="F10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="7" t="s">
         <v>47</v>
       </c>
       <c r="H10" s="5"/>
@@ -1299,6 +1440,9 @@
       <c r="L10" s="5" t="s">
         <v>44</v>
       </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G11" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:L10"/>
@@ -1318,13 +1462,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="52.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="11"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>